--- a/biology/Médecine/Massothérapie/Massothérapie.xlsx
+++ b/biology/Médecine/Massothérapie/Massothérapie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Massoth%C3%A9rapie</t>
+          <t>Massothérapie</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La massothérapie englobe un ensemble de techniques de massage des tissus mous qui, malgré leurs différences de philosophie et de manipulations, partagent un certain nombre de principes et de méthodes qui ont pour objectif de favoriser la détente (musculaire et nerveuse), la circulation sanguine et lymphatique, l'assimilation et la digestion des aliments, le fonctionnement des organes vitaux et l'éveil à une conscience psychocorporelle.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Massoth%C3%A9rapie</t>
+          <t>Massothérapie</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Réglementation au Québec</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Au Québec, l'autorégulation par les associations professionnelles est en vigueur. La plus ancienne d'entre elles, la Fédération québécoise des massothérapeutes (FQM[1]) est la seule à effectuer des démarches en faveur de la création d'un ordre professionnel afin d'encadrer la pratique de la massothérapie. C'est un acteur pionnier dans la reconnaissance de la profession au Québec. Elle a ainsi réussi à obtenir l'appui du Collège des médecins en faveur de l'encadrement de la massothérapie en 2014. L'Association professionnelle des massothérapeutes spécialisés du Québec (AQTN) regroupait plus de 6 500 membres en 2016, ce qui en fait une des plus grandes associations au Québec[2],[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Au Québec, l'autorégulation par les associations professionnelles est en vigueur. La plus ancienne d'entre elles, la Fédération québécoise des massothérapeutes (FQM) est la seule à effectuer des démarches en faveur de la création d'un ordre professionnel afin d'encadrer la pratique de la massothérapie. C'est un acteur pionnier dans la reconnaissance de la profession au Québec. Elle a ainsi réussi à obtenir l'appui du Collège des médecins en faveur de l'encadrement de la massothérapie en 2014. L'Association professionnelle des massothérapeutes spécialisés du Québec (AQTN) regroupait plus de 6 500 membres en 2016, ce qui en fait une des plus grandes associations au Québec,.
 </t>
         </is>
       </c>
